--- a/municipal/სასტუმროები/სტუმრები/იმერეთი/ზესტაფონი.xlsx
+++ b/municipal/სასტუმროები/სტუმრები/იმერეთი/ზესტაფონი.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\4 სტუმრები\იმერეთი\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tgrigolishvili\Desktop\სასტუმროები\სტუმრები\იმერეთი\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="16">
   <si>
     <t>(კაცი)</t>
   </si>
@@ -68,7 +68,52 @@
     <t xml:space="preserve">                       სხვა ქვეყნებიდან</t>
   </si>
   <si>
-    <t>სასტუმროებსა და სასტუმროს ტიპის დაწესებულებებში სტუმართა რაოდენობა ჩამოსვლის ადგილისა და მიზნის მიხედვით ზესტაფონის მუნიციპალიტეტი</t>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Sylfaen"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">* </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Sylfaen"/>
+        <family val="1"/>
+      </rPr>
+      <t>საქართველოს კანონმდებლობის შესაბამისად დარეგისტრირებული იურიდიული პირები და ინდივიდუალური მეწარმეები(ადგილობრივი ერთეულებისა და ფილიალების ჩათვლით).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>სასტუმროებსა და სასტუმროს ტიპის დაწესებულებებში</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Sylfaen"/>
+        <family val="1"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Sylfaen"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> სტუმართა რაოდენობა ჩამოსვლის ადგილისა და მიზნის მიხედვით ზესტაფონის მუნიციპალიტეტში</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -76,9 +121,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="#\ ##0"/>
+    <numFmt numFmtId="164" formatCode="#\ ##0"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,6 +204,20 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Sylfaen"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Sylfaen"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -251,7 +310,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -336,6 +395,21 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -345,29 +419,17 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -651,7 +713,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BI87"/>
+  <dimension ref="A1:BI88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -669,7 +731,7 @@
   <sheetData>
     <row r="1" spans="1:61" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="34" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B1" s="35"/>
       <c r="C1" s="35"/>
@@ -736,66 +798,66 @@
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="40"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="40"/>
-      <c r="V2" s="38"/>
-      <c r="W2" s="38"/>
-      <c r="X2" s="38"/>
-      <c r="Y2" s="38"/>
-      <c r="Z2" s="38"/>
-      <c r="AA2" s="38"/>
-      <c r="AB2" s="38"/>
-      <c r="AC2" s="38"/>
-      <c r="AD2" s="38"/>
-      <c r="AE2" s="38"/>
-      <c r="AF2" s="38"/>
-      <c r="AG2" s="38"/>
-      <c r="AH2" s="38"/>
-      <c r="AI2" s="38"/>
-      <c r="AJ2" s="38"/>
-      <c r="AK2" s="38"/>
-      <c r="AL2" s="38"/>
-      <c r="AM2" s="38"/>
-      <c r="AN2" s="38"/>
-      <c r="AO2" s="38"/>
-      <c r="AP2" s="38"/>
-      <c r="AQ2" s="38"/>
-      <c r="AR2" s="38"/>
-      <c r="AS2" s="38"/>
-      <c r="AT2" s="38"/>
-      <c r="AU2" s="38"/>
-      <c r="AV2" s="38"/>
-      <c r="AW2" s="38"/>
-      <c r="AX2" s="38"/>
-      <c r="AY2" s="38"/>
-      <c r="AZ2" s="38"/>
-      <c r="BA2" s="38"/>
-      <c r="BB2" s="38"/>
-      <c r="BC2" s="38"/>
-      <c r="BD2" s="38"/>
-      <c r="BE2" s="38"/>
-      <c r="BF2" s="38"/>
-      <c r="BG2" s="38"/>
-      <c r="BH2" s="38"/>
-      <c r="BI2" s="38"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="44"/>
+      <c r="V2" s="43"/>
+      <c r="W2" s="43"/>
+      <c r="X2" s="43"/>
+      <c r="Y2" s="43"/>
+      <c r="Z2" s="43"/>
+      <c r="AA2" s="43"/>
+      <c r="AB2" s="43"/>
+      <c r="AC2" s="43"/>
+      <c r="AD2" s="43"/>
+      <c r="AE2" s="43"/>
+      <c r="AF2" s="43"/>
+      <c r="AG2" s="43"/>
+      <c r="AH2" s="43"/>
+      <c r="AI2" s="43"/>
+      <c r="AJ2" s="43"/>
+      <c r="AK2" s="43"/>
+      <c r="AL2" s="43"/>
+      <c r="AM2" s="43"/>
+      <c r="AN2" s="43"/>
+      <c r="AO2" s="43"/>
+      <c r="AP2" s="43"/>
+      <c r="AQ2" s="43"/>
+      <c r="AR2" s="43"/>
+      <c r="AS2" s="43"/>
+      <c r="AT2" s="43"/>
+      <c r="AU2" s="43"/>
+      <c r="AV2" s="43"/>
+      <c r="AW2" s="43"/>
+      <c r="AX2" s="43"/>
+      <c r="AY2" s="43"/>
+      <c r="AZ2" s="43"/>
+      <c r="BA2" s="43"/>
+      <c r="BB2" s="43"/>
+      <c r="BC2" s="43"/>
+      <c r="BD2" s="43"/>
+      <c r="BE2" s="43"/>
+      <c r="BF2" s="43"/>
+      <c r="BG2" s="43"/>
+      <c r="BH2" s="43"/>
+      <c r="BI2" s="43"/>
     </row>
     <row r="3" spans="1:61" s="29" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -873,14 +935,14 @@
       <c r="BI3" s="8"/>
     </row>
     <row r="4" spans="1:61" s="30" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="39">
+      <c r="A4" s="46">
         <v>2010</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
@@ -1388,14 +1450,14 @@
       <c r="BI10" s="14"/>
     </row>
     <row r="11" spans="1:61" s="30" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="36">
+      <c r="A11" s="41">
         <v>2011</v>
       </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
@@ -1573,14 +1635,14 @@
       </c>
     </row>
     <row r="18" spans="1:61" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="36">
+      <c r="A18" s="41">
         <v>2012</v>
       </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
       <c r="G18" s="19"/>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1758,14 +1820,14 @@
       </c>
     </row>
     <row r="25" spans="1:61" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="36">
+      <c r="A25" s="41">
         <v>2013</v>
       </c>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
       <c r="G25" s="19"/>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1943,14 +2005,14 @@
       </c>
     </row>
     <row r="32" spans="1:61" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="36">
+      <c r="A32" s="41">
         <v>2014</v>
       </c>
-      <c r="B32" s="37"/>
-      <c r="C32" s="37"/>
-      <c r="D32" s="37"/>
-      <c r="E32" s="37"/>
-      <c r="F32" s="37"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="42"/>
       <c r="G32" s="19"/>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -2128,14 +2190,14 @@
       </c>
     </row>
     <row r="39" spans="1:61" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="36">
+      <c r="A39" s="41">
         <v>2015</v>
       </c>
-      <c r="B39" s="37"/>
-      <c r="C39" s="37"/>
-      <c r="D39" s="37"/>
-      <c r="E39" s="37"/>
-      <c r="F39" s="37"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="42"/>
       <c r="G39" s="19"/>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -2368,14 +2430,14 @@
       </c>
     </row>
     <row r="46" spans="1:61" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="36">
+      <c r="A46" s="41">
         <v>2016</v>
       </c>
-      <c r="B46" s="37"/>
-      <c r="C46" s="37"/>
-      <c r="D46" s="37"/>
-      <c r="E46" s="37"/>
-      <c r="F46" s="37"/>
+      <c r="B46" s="42"/>
+      <c r="C46" s="42"/>
+      <c r="D46" s="42"/>
+      <c r="E46" s="42"/>
+      <c r="F46" s="42"/>
       <c r="G46" s="19"/>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -2436,19 +2498,19 @@
       <c r="A47" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B47" s="42">
+      <c r="B47" s="36">
         <v>2995</v>
       </c>
-      <c r="C47" s="42">
+      <c r="C47" s="36">
         <v>229</v>
       </c>
-      <c r="D47" s="42">
+      <c r="D47" s="36">
         <v>2711</v>
       </c>
-      <c r="E47" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="F47" s="42">
+      <c r="E47" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" s="36">
         <v>55</v>
       </c>
     </row>
@@ -2456,19 +2518,19 @@
       <c r="A48" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B48" s="43">
+      <c r="B48" s="37">
         <v>2776</v>
       </c>
-      <c r="C48" s="43">
+      <c r="C48" s="37">
         <v>229</v>
       </c>
-      <c r="D48" s="43">
+      <c r="D48" s="37">
         <v>2547</v>
       </c>
-      <c r="E48" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="F48" s="44" t="s">
+      <c r="E48" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48" s="38" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2476,19 +2538,19 @@
       <c r="A49" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B49" s="43">
+      <c r="B49" s="37">
         <v>219</v>
       </c>
-      <c r="C49" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="D49" s="43">
+      <c r="C49" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" s="37">
         <v>164</v>
       </c>
-      <c r="E49" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="F49" s="43">
+      <c r="E49" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49" s="37">
         <v>55</v>
       </c>
     </row>
@@ -2496,19 +2558,19 @@
       <c r="A50" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B50" s="43">
+      <c r="B50" s="37">
         <v>33</v>
       </c>
-      <c r="C50" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="D50" s="43">
+      <c r="C50" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" s="37">
         <v>31</v>
       </c>
-      <c r="E50" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="F50" s="43">
+      <c r="E50" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F50" s="37">
         <v>2</v>
       </c>
     </row>
@@ -2516,19 +2578,19 @@
       <c r="A51" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B51" s="43">
+      <c r="B51" s="37">
         <v>74</v>
       </c>
-      <c r="C51" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="D51" s="43">
+      <c r="C51" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" s="37">
         <v>23</v>
       </c>
-      <c r="E51" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="F51" s="43">
+      <c r="E51" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F51" s="37">
         <v>51</v>
       </c>
     </row>
@@ -2536,31 +2598,31 @@
       <c r="A52" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B52" s="45">
+      <c r="B52" s="39">
         <v>112</v>
       </c>
-      <c r="C52" s="46" t="s">
-        <v>8</v>
-      </c>
-      <c r="D52" s="45">
+      <c r="C52" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" s="39">
         <v>110</v>
       </c>
-      <c r="E52" s="46" t="s">
-        <v>8</v>
-      </c>
-      <c r="F52" s="45">
+      <c r="E52" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52" s="39">
         <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:61" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="36">
+      <c r="A53" s="41">
         <v>2017</v>
       </c>
-      <c r="B53" s="37"/>
-      <c r="C53" s="37"/>
-      <c r="D53" s="37"/>
-      <c r="E53" s="37"/>
-      <c r="F53" s="37"/>
+      <c r="B53" s="42"/>
+      <c r="C53" s="42"/>
+      <c r="D53" s="42"/>
+      <c r="E53" s="42"/>
+      <c r="F53" s="42"/>
       <c r="G53" s="19"/>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -2621,19 +2683,19 @@
       <c r="A54" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B54" s="42">
+      <c r="B54" s="36">
         <v>3079</v>
       </c>
-      <c r="C54" s="42">
+      <c r="C54" s="36">
         <v>4</v>
       </c>
-      <c r="D54" s="42">
+      <c r="D54" s="36">
         <v>2064</v>
       </c>
-      <c r="E54" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="F54" s="42">
+      <c r="E54" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="F54" s="36">
         <v>1011</v>
       </c>
     </row>
@@ -2641,19 +2703,19 @@
       <c r="A55" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B55" s="43">
+      <c r="B55" s="37">
         <v>2905</v>
       </c>
-      <c r="C55" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="D55" s="43">
+      <c r="C55" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" s="37">
         <v>1955</v>
       </c>
-      <c r="E55" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="F55" s="44">
+      <c r="E55" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F55" s="38">
         <v>950</v>
       </c>
     </row>
@@ -2661,19 +2723,19 @@
       <c r="A56" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B56" s="43">
+      <c r="B56" s="37">
         <v>174</v>
       </c>
-      <c r="C56" s="44">
+      <c r="C56" s="38">
         <v>4</v>
       </c>
-      <c r="D56" s="43">
+      <c r="D56" s="37">
         <v>109</v>
       </c>
-      <c r="E56" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="F56" s="43">
+      <c r="E56" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F56" s="37">
         <v>61</v>
       </c>
     </row>
@@ -2681,19 +2743,19 @@
       <c r="A57" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B57" s="43">
+      <c r="B57" s="37">
         <v>45</v>
       </c>
-      <c r="C57" s="44">
+      <c r="C57" s="38">
         <v>4</v>
       </c>
-      <c r="D57" s="43">
+      <c r="D57" s="37">
         <v>39</v>
       </c>
-      <c r="E57" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="F57" s="43">
+      <c r="E57" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F57" s="37">
         <v>2</v>
       </c>
     </row>
@@ -2701,19 +2763,19 @@
       <c r="A58" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B58" s="43">
+      <c r="B58" s="37">
         <v>99</v>
       </c>
-      <c r="C58" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="D58" s="43">
+      <c r="C58" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" s="37">
         <v>48</v>
       </c>
-      <c r="E58" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="F58" s="43">
+      <c r="E58" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" s="37">
         <v>51</v>
       </c>
     </row>
@@ -2721,31 +2783,31 @@
       <c r="A59" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B59" s="45">
+      <c r="B59" s="39">
         <v>30</v>
       </c>
-      <c r="C59" s="46" t="s">
-        <v>8</v>
-      </c>
-      <c r="D59" s="45">
+      <c r="C59" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" s="39">
         <v>22</v>
       </c>
-      <c r="E59" s="46" t="s">
-        <v>8</v>
-      </c>
-      <c r="F59" s="45">
+      <c r="E59" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="F59" s="39">
         <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:61" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="36">
+      <c r="A60" s="41">
         <v>2018</v>
       </c>
-      <c r="B60" s="37"/>
-      <c r="C60" s="37"/>
-      <c r="D60" s="37"/>
-      <c r="E60" s="37"/>
-      <c r="F60" s="37"/>
+      <c r="B60" s="42"/>
+      <c r="C60" s="42"/>
+      <c r="D60" s="42"/>
+      <c r="E60" s="42"/>
+      <c r="F60" s="42"/>
       <c r="G60" s="19"/>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
@@ -2806,19 +2868,19 @@
       <c r="A61" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B61" s="42">
+      <c r="B61" s="36">
         <v>3711</v>
       </c>
-      <c r="C61" s="42">
+      <c r="C61" s="36">
         <v>3</v>
       </c>
-      <c r="D61" s="42">
+      <c r="D61" s="36">
         <v>3578</v>
       </c>
-      <c r="E61" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="F61" s="42">
+      <c r="E61" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="F61" s="36">
         <v>130</v>
       </c>
     </row>
@@ -2826,17 +2888,17 @@
       <c r="A62" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B62" s="43">
+      <c r="B62" s="37">
         <v>3533</v>
       </c>
-      <c r="C62" s="43"/>
-      <c r="D62" s="43">
+      <c r="C62" s="37"/>
+      <c r="D62" s="37">
         <v>3431</v>
       </c>
-      <c r="E62" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="F62" s="44">
+      <c r="E62" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62" s="38">
         <v>102</v>
       </c>
     </row>
@@ -2844,19 +2906,19 @@
       <c r="A63" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B63" s="43">
+      <c r="B63" s="37">
         <v>178</v>
       </c>
-      <c r="C63" s="44">
+      <c r="C63" s="38">
         <v>3</v>
       </c>
-      <c r="D63" s="43">
+      <c r="D63" s="37">
         <v>147</v>
       </c>
-      <c r="E63" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="F63" s="43">
+      <c r="E63" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F63" s="37">
         <v>28</v>
       </c>
     </row>
@@ -2864,19 +2926,19 @@
       <c r="A64" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B64" s="43">
+      <c r="B64" s="37">
         <v>58</v>
       </c>
-      <c r="C64" s="44">
+      <c r="C64" s="38">
         <v>3</v>
       </c>
-      <c r="D64" s="43">
+      <c r="D64" s="37">
         <v>55</v>
       </c>
-      <c r="E64" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="F64" s="43" t="s">
+      <c r="E64" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F64" s="37" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2884,19 +2946,19 @@
       <c r="A65" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B65" s="43">
+      <c r="B65" s="37">
         <v>82</v>
       </c>
-      <c r="C65" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="D65" s="43">
+      <c r="C65" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D65" s="37">
         <v>57</v>
       </c>
-      <c r="E65" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="F65" s="43">
+      <c r="E65" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F65" s="37">
         <v>25</v>
       </c>
     </row>
@@ -2904,31 +2966,31 @@
       <c r="A66" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B66" s="45">
+      <c r="B66" s="39">
         <v>38</v>
       </c>
-      <c r="C66" s="46" t="s">
-        <v>8</v>
-      </c>
-      <c r="D66" s="45">
+      <c r="C66" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="D66" s="39">
         <v>35</v>
       </c>
-      <c r="E66" s="46" t="s">
-        <v>8</v>
-      </c>
-      <c r="F66" s="45">
+      <c r="E66" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="F66" s="39">
         <v>3</v>
       </c>
     </row>
     <row r="67" spans="1:61" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="36">
+      <c r="A67" s="41">
         <v>2019</v>
       </c>
-      <c r="B67" s="37"/>
-      <c r="C67" s="37"/>
-      <c r="D67" s="37"/>
-      <c r="E67" s="37"/>
-      <c r="F67" s="37"/>
+      <c r="B67" s="42"/>
+      <c r="C67" s="42"/>
+      <c r="D67" s="42"/>
+      <c r="E67" s="42"/>
+      <c r="F67" s="42"/>
       <c r="G67" s="19"/>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
@@ -2989,19 +3051,19 @@
       <c r="A68" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B68" s="42">
+      <c r="B68" s="36">
         <v>2716</v>
       </c>
-      <c r="C68" s="42">
+      <c r="C68" s="36">
         <v>4</v>
       </c>
-      <c r="D68" s="42">
+      <c r="D68" s="36">
         <v>2672</v>
       </c>
-      <c r="E68" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="F68" s="42">
+      <c r="E68" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="F68" s="36">
         <v>40</v>
       </c>
     </row>
@@ -3009,17 +3071,17 @@
       <c r="A69" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B69" s="43">
+      <c r="B69" s="37">
         <v>1943</v>
       </c>
-      <c r="C69" s="43"/>
-      <c r="D69" s="43">
+      <c r="C69" s="37"/>
+      <c r="D69" s="37">
         <v>1903</v>
       </c>
-      <c r="E69" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="F69" s="44">
+      <c r="E69" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F69" s="38">
         <v>40</v>
       </c>
     </row>
@@ -3027,19 +3089,19 @@
       <c r="A70" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B70" s="43">
+      <c r="B70" s="37">
         <v>773</v>
       </c>
-      <c r="C70" s="44">
+      <c r="C70" s="38">
         <v>4</v>
       </c>
-      <c r="D70" s="43">
+      <c r="D70" s="37">
         <v>769</v>
       </c>
-      <c r="E70" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="F70" s="43" t="s">
+      <c r="E70" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F70" s="37" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3047,19 +3109,19 @@
       <c r="A71" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B71" s="43">
+      <c r="B71" s="37">
         <v>4</v>
       </c>
-      <c r="C71" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="D71" s="43">
+      <c r="C71" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D71" s="37">
         <v>4</v>
       </c>
-      <c r="E71" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="F71" s="43" t="s">
+      <c r="E71" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F71" s="37" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3067,19 +3129,19 @@
       <c r="A72" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B72" s="43">
+      <c r="B72" s="37">
         <v>102</v>
       </c>
-      <c r="C72" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="D72" s="43">
+      <c r="C72" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D72" s="37">
         <v>102</v>
       </c>
-      <c r="E72" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="F72" s="43" t="s">
+      <c r="E72" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F72" s="37" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3087,31 +3149,31 @@
       <c r="A73" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B73" s="45">
+      <c r="B73" s="39">
         <v>667</v>
       </c>
-      <c r="C73" s="46">
+      <c r="C73" s="40">
         <v>4</v>
       </c>
-      <c r="D73" s="45">
+      <c r="D73" s="39">
         <v>663</v>
       </c>
-      <c r="E73" s="46" t="s">
-        <v>8</v>
-      </c>
-      <c r="F73" s="45" t="s">
+      <c r="E73" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="F73" s="39" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="74" spans="1:61" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="36">
+      <c r="A74" s="41">
         <v>2020</v>
       </c>
-      <c r="B74" s="37"/>
-      <c r="C74" s="37"/>
-      <c r="D74" s="37"/>
-      <c r="E74" s="37"/>
-      <c r="F74" s="37"/>
+      <c r="B74" s="42"/>
+      <c r="C74" s="42"/>
+      <c r="D74" s="42"/>
+      <c r="E74" s="42"/>
+      <c r="F74" s="42"/>
       <c r="G74" s="19"/>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
@@ -3172,19 +3234,19 @@
       <c r="A75" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B75" s="42">
+      <c r="B75" s="36">
         <v>2612</v>
       </c>
-      <c r="C75" s="42">
+      <c r="C75" s="36">
         <v>800</v>
       </c>
-      <c r="D75" s="42">
+      <c r="D75" s="36">
         <v>322</v>
       </c>
-      <c r="E75" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="F75" s="42">
+      <c r="E75" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="F75" s="36">
         <v>1490</v>
       </c>
     </row>
@@ -3192,19 +3254,19 @@
       <c r="A76" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B76" s="43">
+      <c r="B76" s="37">
         <v>2612</v>
       </c>
-      <c r="C76" s="43">
+      <c r="C76" s="37">
         <v>800</v>
       </c>
-      <c r="D76" s="43">
+      <c r="D76" s="37">
         <v>322</v>
       </c>
-      <c r="E76" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="F76" s="44">
+      <c r="E76" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F76" s="38">
         <v>1490</v>
       </c>
     </row>
@@ -3212,19 +3274,19 @@
       <c r="A77" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B77" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="C77" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="D77" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="E77" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="F77" s="43" t="s">
+      <c r="B77" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C77" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D77" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E77" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F77" s="37" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3232,19 +3294,19 @@
       <c r="A78" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B78" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="C78" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="D78" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="E78" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="F78" s="43" t="s">
+      <c r="B78" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C78" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D78" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E78" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F78" s="37" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3252,19 +3314,19 @@
       <c r="A79" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B79" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="C79" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="D79" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="E79" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="F79" s="43" t="s">
+      <c r="B79" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C79" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D79" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E79" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F79" s="37" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3272,31 +3334,31 @@
       <c r="A80" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B80" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="C80" s="46" t="s">
-        <v>8</v>
-      </c>
-      <c r="D80" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="E80" s="46" t="s">
-        <v>8</v>
-      </c>
-      <c r="F80" s="45" t="s">
+      <c r="B80" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="D80" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="E80" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="F80" s="39" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="81" spans="1:61" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="36">
+      <c r="A81" s="41">
         <v>2021</v>
       </c>
-      <c r="B81" s="37"/>
-      <c r="C81" s="37"/>
-      <c r="D81" s="37"/>
-      <c r="E81" s="37"/>
-      <c r="F81" s="37"/>
+      <c r="B81" s="42"/>
+      <c r="C81" s="42"/>
+      <c r="D81" s="42"/>
+      <c r="E81" s="42"/>
+      <c r="F81" s="42"/>
       <c r="G81" s="19"/>
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
@@ -3357,19 +3419,19 @@
       <c r="A82" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B82" s="42">
+      <c r="B82" s="36">
         <v>2943</v>
       </c>
-      <c r="C82" s="42">
+      <c r="C82" s="36">
         <v>1085</v>
       </c>
-      <c r="D82" s="42">
+      <c r="D82" s="36">
         <v>163</v>
       </c>
-      <c r="E82" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="F82" s="42">
+      <c r="E82" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="F82" s="36">
         <v>1695</v>
       </c>
     </row>
@@ -3377,19 +3439,19 @@
       <c r="A83" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B83" s="43">
+      <c r="B83" s="37">
         <v>2893</v>
       </c>
-      <c r="C83" s="43">
+      <c r="C83" s="37">
         <v>1035</v>
       </c>
-      <c r="D83" s="43">
+      <c r="D83" s="37">
         <v>163</v>
       </c>
-      <c r="E83" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="F83" s="44">
+      <c r="E83" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F83" s="38">
         <v>1695</v>
       </c>
     </row>
@@ -3397,19 +3459,19 @@
       <c r="A84" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B84" s="43">
+      <c r="B84" s="37">
         <v>50</v>
       </c>
-      <c r="C84" s="44">
+      <c r="C84" s="38">
         <v>50</v>
       </c>
-      <c r="D84" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="E84" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="F84" s="43" t="s">
+      <c r="D84" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E84" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F84" s="37" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3417,19 +3479,19 @@
       <c r="A85" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B85" s="43">
+      <c r="B85" s="37">
         <v>50</v>
       </c>
-      <c r="C85" s="44">
+      <c r="C85" s="38">
         <v>50</v>
       </c>
-      <c r="D85" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="E85" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="F85" s="43" t="s">
+      <c r="D85" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E85" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F85" s="37" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3437,19 +3499,19 @@
       <c r="A86" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B86" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="C86" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="D86" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="E86" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="F86" s="43" t="s">
+      <c r="B86" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C86" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D86" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E86" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F86" s="37" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3457,24 +3519,50 @@
       <c r="A87" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B87" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="C87" s="46" t="s">
-        <v>8</v>
-      </c>
-      <c r="D87" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="E87" s="46" t="s">
-        <v>8</v>
-      </c>
-      <c r="F87" s="45" t="s">
-        <v>8</v>
-      </c>
+      <c r="B87" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C87" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="D87" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="E87" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="F87" s="39" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:61" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="B88" s="47"/>
+      <c r="C88" s="47"/>
+      <c r="D88" s="47"/>
+      <c r="E88" s="47"/>
+      <c r="F88" s="47"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="25">
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="A74:F74"/>
+    <mergeCell ref="A81:F81"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="A60:F60"/>
+    <mergeCell ref="A67:F67"/>
+    <mergeCell ref="AZ2:BD2"/>
+    <mergeCell ref="BE2:BI2"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="AP2:AT2"/>
+    <mergeCell ref="AU2:AY2"/>
     <mergeCell ref="A25:F25"/>
     <mergeCell ref="V2:Z2"/>
     <mergeCell ref="AA2:AE2"/>
@@ -3484,21 +3572,6 @@
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="G2:K2"/>
     <mergeCell ref="L2:P2"/>
-    <mergeCell ref="AZ2:BD2"/>
-    <mergeCell ref="BE2:BI2"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="AP2:AT2"/>
-    <mergeCell ref="AU2:AY2"/>
-    <mergeCell ref="A74:F74"/>
-    <mergeCell ref="A81:F81"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="A53:F53"/>
-    <mergeCell ref="A60:F60"/>
-    <mergeCell ref="A67:F67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
